--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43722,6 +43722,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43796,6 +43796,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43833,6 +43833,41 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43868,6 +43868,41 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43903,6 +43903,43 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43940,6 +43940,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43977,6 +43977,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44014,6 +44014,78 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44086,6 +44086,80 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44160,6 +44160,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44195,6 +44195,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44232,6 +44232,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44267,6 +44267,43 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44304,6 +44304,80 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44378,6 +44378,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44413,6 +44413,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63418,6 +63418,43 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63455,6 +63455,43 @@
         </is>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1760" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63492,6 +63492,41 @@
         </is>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63527,6 +63527,43 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63564,6 +63564,43 @@
         </is>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1763" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63601,6 +63601,43 @@
         </is>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63638,6 +63638,43 @@
         </is>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63675,6 +63675,41 @@
         </is>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63710,6 +63710,43 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63747,6 +63747,43 @@
         </is>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63784,6 +63784,43 @@
         </is>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63821,6 +63821,43 @@
         </is>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1770" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63858,6 +63858,43 @@
         </is>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1771" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1771"/>
+  <dimension ref="A1:I1772"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63895,6 +63895,41 @@
         </is>
       </c>
     </row>
+    <row r="1772">
+      <c r="A1772" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1772" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7033.xlsx
+++ b/data/7033.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1772"/>
+  <dimension ref="A1:I1773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63930,6 +63930,43 @@
         <v>400</v>
       </c>
     </row>
+    <row r="1773">
+      <c r="A1773" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>7033</t>
+        </is>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>HIGHTEC</t>
+        </is>
+      </c>
+      <c r="E1773" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1773" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
